--- a/esp_connection.xlsx
+++ b/esp_connection.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
   <si>
     <t>3V3</t>
   </si>
@@ -114,6 +114,9 @@
   </si>
   <si>
     <t>rezerva</t>
+  </si>
+  <si>
+    <t>HX711</t>
   </si>
 </sst>
 </file>
@@ -474,7 +477,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -687,6 +690,9 @@
       <c r="F14" s="3">
         <v>0</v>
       </c>
+      <c r="G14" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="5">
@@ -708,6 +714,9 @@
       <c r="E16" s="1"/>
       <c r="F16" s="4">
         <v>15</v>
+      </c>
+      <c r="G16" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
